--- a/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$141</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3597" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="878">
   <si>
     <t>Path</t>
   </si>
@@ -346,6 +346,326 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>medicationrequest-extendedPriority</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
+</t>
+  </si>
+  <si>
+    <t>This field contains the priority of the order that was received from OERR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @PRIORITY 55.01-134b</t>
+  </si>
+  <si>
+    <t>medicationrequest-lastFillQuantity</t>
+  </si>
+  <si>
+    <t>LAST QTY FILLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastFillQuantity}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Quantity of last filled prescription.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @LAST QTY FILLED 55.01-.16</t>
+  </si>
+  <si>
+    <t>medicationrequest-lastFillDate</t>
+  </si>
+  <si>
+    <t>LAST FILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastFillDate}
+</t>
+  </si>
+  <si>
+    <t>Last time the prescription was filled.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @LAST FILL 55.01-.15</t>
+  </si>
+  <si>
+    <t>medicationdispense-ivLabelsPerDay</t>
+  </si>
+  <si>
+    <t>LABELS PER DAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivLabelsPerDay}
+</t>
+  </si>
+  <si>
+    <t>labels per day</t>
+  </si>
+  <si>
+    <t>The number of IV labels needed each day. If populated, this value will  override the system-calculated number of labels.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @LABELS PER DAY 55.01-155</t>
+  </si>
+  <si>
+    <t>medicationrequest-nurseVerified</t>
+  </si>
+  <si>
+    <t>NV FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-nurseVerified}
+</t>
+  </si>
+  <si>
+    <t>nv flag</t>
+  </si>
+  <si>
+    <t>This is an internal flag set whenever a nurse verifies the order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @NV FLAG 55.01-143</t>
+  </si>
+  <si>
+    <t>medicationrequest-pharmacistVerified</t>
+  </si>
+  <si>
+    <t>PV FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacistVerified}
+</t>
+  </si>
+  <si>
+    <t>pv flag</t>
+  </si>
+  <si>
+    <t>This is an internal flag set whenever a pharmacist verifies the order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @PV FLAG 55.01-142</t>
+  </si>
+  <si>
+    <t>richAnnotation-comment-text</t>
+  </si>
+  <si>
+    <t>SPECIAL INSTRUCTIONS (LONG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
+</t>
+  </si>
+  <si>
+    <t>other print info</t>
+  </si>
+  <si>
+    <t>This field contains any special instructions or messages appropriate for this IV order. This field may only be edited when entering an order through the OE/RR package, and will only be displayed when viewing
+the order until the order has been verified.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @SPECIAL INSTRUCTIONS (LONG)  55.01-103</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t>ENTRY BY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/valueReference}
+</t>
+  </si>
+  <si>
+    <t>entry by</t>
+  </si>
+  <si>
+    <t>This field contains the pointer value for the person entered the IV order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @ENTRY BY 55.01-135</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderCreationMode</t>
+  </si>
+  <si>
+    <t>REASON ORDER CREATED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
+</t>
+  </si>
+  <si>
+    <t>This is used to show the method used to create this order. what actions may be taken on the order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @REASON ORDER CREATED 55.01-122</t>
+  </si>
+  <si>
+    <t>medicationdispense-ivPrepRoom</t>
+  </si>
+  <si>
+    <t>IV ROOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivPrepRoom}
+</t>
+  </si>
+  <si>
+    <t>iv room</t>
+  </si>
+  <si>
+    <t>IV room where IV was prepared for administration.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @IV ROOM 55.01-.22</t>
+  </si>
+  <si>
+    <t>extension-valueAnnotation-text</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.text}
+</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>This field is not shown on the IV labels, but is shown on some of the IV reports.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @REMARKS 55.01-.1</t>
+  </si>
+  <si>
+    <t>medicationdispense-holdFlag</t>
+  </si>
+  <si>
+    <t>HOLD FLAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-holdFlag}
+</t>
+  </si>
+  <si>
+    <t>This is a flag set to 1 whenever the order is placed on HOLD or 0 whenever the order is removed from hold.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @HOLD FLAG 55.01-149</t>
+  </si>
+  <si>
+    <t>medicationrequest-orderPlacementChannel</t>
+  </si>
+  <si>
+    <t>NATURE OF ORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
+</t>
+  </si>
+  <si>
+    <t>nature of order</t>
+  </si>
+  <si>
+    <t>This is the method the provider used to communicate the order to the user to enter (or take any other action on) the order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @NATURE OF ORDER 55.01-137</t>
+  </si>
+  <si>
+    <t>extension-MedicationRequest-statusReason</t>
+  </si>
+  <si>
+    <t>DISPLAY STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
+</t>
+  </si>
+  <si>
+    <t>display satus</t>
+  </si>
+  <si>
+    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @DISPLAY STATUS 55.01-157</t>
+  </si>
+  <si>
+    <t>medicationdispense-cumulativeDoses</t>
+  </si>
+  <si>
+    <t>CUMULATIVE DOSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-cumulativeDoses}
+</t>
+  </si>
+  <si>
+    <t>cumulative doses</t>
+  </si>
+  <si>
+    <t>Cumulative doses of IV for patient.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @CUMULATIVE DOSES 55.01-.24</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept-coding-code</t>
+  </si>
+  <si>
+    <t>INTERMITTENT SYRING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/valueCodeableConcept.coding.code}
+</t>
+  </si>
+  <si>
+    <t>intermittent syringe</t>
+  </si>
+  <si>
+    <t>A syringe IV order may be continuous or intermittent.  If a syringe type is continuous (not intermittent), the same order entry procedure will be followed as if a hyperal or admixture is being entered.  If a syringe order is to be intermittent, the same order entry method as the piggback type will be followed.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @INTERMITTENT SYRING 55.01-108</t>
+  </si>
+  <si>
+    <t>medicationrequest-ivType</t>
+  </si>
+  <si>
+    <t>CHEMOTHERAPY TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-ivType}
+</t>
+  </si>
+  <si>
+    <t>chemotherapy type</t>
+  </si>
+  <si>
+    <t>A chemotherapy IV order may be one of three types: admixture, piggyback, or syringe.  The type of chemotherapy IV must be identified as one of these types, so the system will know what kinds of questions to ask in order to properly complete this order.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @CHEMOTHERAPY TYPE 55.01-106</t>
+  </si>
+  <si>
     <t>medicationrequest-pharmacyOrderStatus</t>
   </si>
   <si>
@@ -359,327 +679,7 @@
     <t>Status of order. Enter one of following codes: A for active, H for hold, R for renewed, D for discontinued, E for expired, P for purge, O for on  call, N for nonverified.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>Pharmacy Patient @STATUS 55.01-100b</t>
-  </si>
-  <si>
-    <t>medicationrequest-ivType</t>
-  </si>
-  <si>
-    <t>CHEMOTHERAPY TYPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-ivType}
-</t>
-  </si>
-  <si>
-    <t>chemotherapy type</t>
-  </si>
-  <si>
-    <t>A chemotherapy IV order may be one of three types: admixture, piggyback, or syringe.  The type of chemotherapy IV must be identified as one of these types, so the system will know what kinds of questions to ask in order to properly complete this order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @CHEMOTHERAPY TYPE 55.01-106</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept/coding/code</t>
-  </si>
-  <si>
-    <t>INTERMITTENT SYRING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/valueCodeableConcept.coding.code}
-</t>
-  </si>
-  <si>
-    <t>intermittent syringe</t>
-  </si>
-  <si>
-    <t>A syringe IV order may be continuous or intermittent.  If a syringe type is continuous (not intermittent), the same order entry procedure will be followed as if a hyperal or admixture is being entered.  If a syringe order is to be intermittent, the same order entry method as the piggback type will be followed.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @INTERMITTENT SYRING 55.01-108</t>
-  </si>
-  <si>
-    <t>medicationdispense-cumulativeDoses</t>
-  </si>
-  <si>
-    <t>CUMULATIVE DOSES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-cumulativeDoses}
-</t>
-  </si>
-  <si>
-    <t>cumulative doses</t>
-  </si>
-  <si>
-    <t>Cumulative doses of IV for patient.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @CUMULATIVE DOSES 55.01-.24</t>
-  </si>
-  <si>
-    <t>extension-MedicationRequest/statusReason</t>
-  </si>
-  <si>
-    <t>DISPLAY STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension-MedicationRequest.statusReason}
-</t>
-  </si>
-  <si>
-    <t>display satus</t>
-  </si>
-  <si>
-    <t>This field captures how a "Discontinued" action occurred and this code is  displayed on the short patient profile if the Stop Date/Time is within the time specified in the Inpatient Ward Parameter file (#59.6) or the Pharmacy System file (#59.7). The "HP" is to display on the profile if the order was placed on hold by provider through CPRS.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @DISPLAY STATUS 55.01-157</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderPlacementChannel</t>
-  </si>
-  <si>
-    <t>NATURE OF ORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderPlacementChannel}
-</t>
-  </si>
-  <si>
-    <t>nature of order</t>
-  </si>
-  <si>
-    <t>This is the method the provider used to communicate the order to the user to enter (or take any other action on) the order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @NATURE OF ORDER 55.01-137</t>
-  </si>
-  <si>
-    <t>medicationdispense-holdFlag</t>
-  </si>
-  <si>
-    <t>HOLD FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-holdFlag}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>This is a flag set to 1 whenever the order is placed on HOLD or 0 whenever the order is removed from hold.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @HOLD FLAG 55.01-149</t>
-  </si>
-  <si>
-    <t>extension/valueAnnotation/text</t>
-  </si>
-  <si>
-    <t>REMARKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/extension.valueAnnotation.text}
-</t>
-  </si>
-  <si>
-    <t>remarks</t>
-  </si>
-  <si>
-    <t>This field is not shown on the IV labels, but is shown on some of the IV reports.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @REMARKS 55.01-.1</t>
-  </si>
-  <si>
-    <t>medicationdispense-ivPrepRoom</t>
-  </si>
-  <si>
-    <t>IV ROOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivPrepRoom}
-</t>
-  </si>
-  <si>
-    <t>iv room</t>
-  </si>
-  <si>
-    <t>IV room where IV was prepared for administration.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @IV ROOM 55.01-.22</t>
-  </si>
-  <si>
-    <t>medicationrequest-orderCreationMode</t>
-  </si>
-  <si>
-    <t>REASON ORDER CREATED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-orderCreationMode}
-</t>
-  </si>
-  <si>
-    <t>This is used to show the method used to create this order. what actions may be taken on the order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @REASON ORDER CREATED 55.01-122</t>
-  </si>
-  <si>
-    <t>valueReference</t>
-  </si>
-  <si>
-    <t>ENTRY BY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/valueReference}
-</t>
-  </si>
-  <si>
-    <t>entry by</t>
-  </si>
-  <si>
-    <t>This field contains the pointer value for the person entered the IV order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @ENTRY BY 55.01-135</t>
-  </si>
-  <si>
-    <t>richAnnotation/comment/text</t>
-  </si>
-  <si>
-    <t>SPECIAL INSTRUCTIONS (LONG)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.comment.text}
-</t>
-  </si>
-  <si>
-    <t>other print info</t>
-  </si>
-  <si>
-    <t>This field contains any special instructions or messages appropriate for this IV order. This field may only be edited when entering an order through the OE/RR package, and will only be displayed when viewing
-the order until the order has been verified.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @SPECIAL INSTRUCTIONS (LONG)  55.01-103</t>
-  </si>
-  <si>
-    <t>medicationrequest-pharmacistVerified</t>
-  </si>
-  <si>
-    <t>PV FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-pharmacistVerified}
-</t>
-  </si>
-  <si>
-    <t>pv flag</t>
-  </si>
-  <si>
-    <t>This is an internal flag set whenever a pharmacist verifies the order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @PV FLAG 55.01-142</t>
-  </si>
-  <si>
-    <t>medicationrequest-nurseVerified</t>
-  </si>
-  <si>
-    <t>NV FLAG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-nurseVerified}
-</t>
-  </si>
-  <si>
-    <t>nv flag</t>
-  </si>
-  <si>
-    <t>This is an internal flag set whenever a nurse verifies the order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @NV FLAG 55.01-143</t>
-  </si>
-  <si>
-    <t>medicationdispense-ivLabelsPerDay</t>
-  </si>
-  <si>
-    <t>LABELS PER DAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationdispense-ivLabelsPerDay}
-</t>
-  </si>
-  <si>
-    <t>labels per day</t>
-  </si>
-  <si>
-    <t>The number of IV labels needed each day. If populated, this value will  override the system-calculated number of labels.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @LABELS PER DAY 55.01-155</t>
-  </si>
-  <si>
-    <t>medicationrequest-lastFillDate</t>
-  </si>
-  <si>
-    <t>LAST FILL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastFillDate}
-</t>
-  </si>
-  <si>
-    <t>Last time the prescription was filled.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @LAST FILL 55.01-.15</t>
-  </si>
-  <si>
-    <t>medicationrequest-lastFillQuantity</t>
-  </si>
-  <si>
-    <t>LAST QTY FILLED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-lastFillQuantity}
-</t>
-  </si>
-  <si>
-    <t>Quantity of last filled prescription.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @LAST QTY FILLED 55.01-.16</t>
-  </si>
-  <si>
-    <t>medicationrequest-extendedPriority</t>
-  </si>
-  <si>
-    <t>PRIORITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-extendedPriority}
-</t>
-  </si>
-  <si>
-    <t>This field contains the priority of the order that was received from OERR.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @PRIORITY 55.01-134b</t>
   </si>
   <si>
     <t>MedicationRequest.modifierExtension</t>
@@ -1537,16 +1537,22 @@
     <t>MedicationRequest.dosageInstruction.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG</t>
-  </si>
-  <si>
-    <t>Free text dosage instructions e.g. SIG.</t>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>&lt;blank&gt;</t>
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.</t>
   </si>
   <si>
     <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @INSTRUCTIONS 55.01-133</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.additionalInstruction</t>
@@ -1607,6 +1613,507 @@
     <t>.effectiveTime</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.timing.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.event</t>
+  </si>
+  <si>
+    <t>When the event occurs</t>
+  </si>
+  <si>
+    <t>Identifies specific times when the event occurs.</t>
+  </si>
+  <si>
+    <t>In an MAR, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t>Timing.event</t>
+  </si>
+  <si>
+    <t>QLIST&lt;TS&gt;</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element
+</t>
+  </si>
+  <si>
+    <t>When the event is to occur</t>
+  </si>
+  <si>
+    <t>A set of rules that describe when the event is scheduled.</t>
+  </si>
+  <si>
+    <t>Many timing schedules are determined by regular repetitions.</t>
+  </si>
+  <si>
+    <t>Timing.repeat</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-10:If there's a timeOfDay, there cannot be be a when, or vice versa {timeOfDay.empty() or when.empty()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}</t>
+  </si>
+  <si>
+    <t>Implies PIVL or EIVL</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.extension</t>
+  </si>
+  <si>
+    <t>timeOfDay</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION TIMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/timeOfDay}
+</t>
+  </si>
+  <si>
+    <t>administration times</t>
+  </si>
+  <si>
+    <t>Enter the times that this order will be given separated by a '-'.  The administration times have to be entered in ascending order.  Each  administration time must be at least two characters long or four characters long.  Example: '03-07-11-15-19-23' or '0730-1130'.   Administration times are REQUIRED for STANDARD schedules but are NOT  REQUIRED for NON-STANDARD schedules.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @ADMINISTRATION TIMES 55.01-.12</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>Length/Range of lengths, or (Start and/or end) limits</t>
+  </si>
+  <si>
+    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Timing.repeat.bounds[x]</t>
+  </si>
+  <si>
+    <t>IVL(TS) used in a QSI</t>
+  </si>
+  <si>
+    <t>boundsPeriod</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].start</t>
+  </si>
+  <si>
+    <t>START DATE/TIME</t>
+  </si>
+  <si>
+    <t>start date</t>
+  </si>
+  <si>
+    <t>This is the date and time the order is to begin. This package initially assigns the START DATE/TIME to the closest administration time or next admin. time or NOW depends on the value of the DEFAULT START DATE CALCULATION field in the WARD PARAMETERS file. START DATE/TIME may not  be entered prior to 7 days from the order's LOGIN DATE.</t>
+  </si>
+  <si>
+    <t>If the low element is missing, the meaning is that the low boundary is not known.</t>
+  </si>
+  <si>
+    <t>Period.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per-1
+</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @START DATE/TIME 55.01-.02</t>
+  </si>
+  <si>
+    <t>./low</t>
+  </si>
+  <si>
+    <t>DR.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.bounds[x].end</t>
+  </si>
+  <si>
+    <t>STOP DATE/TIME</t>
+  </si>
+  <si>
+    <t>stop date</t>
+  </si>
+  <si>
+    <t>This is the date and time the order is to end.</t>
+  </si>
+  <si>
+    <t>The high value includes any matching date/time. i.e. 2012-02-03T10:00:00 is in a period that has a end value of 2012-02-03.</t>
+  </si>
+  <si>
+    <t>If the end of the period is missing, it means that the period is ongoing</t>
+  </si>
+  <si>
+    <t>Period.end</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @STOP DATE/TIME 55.01-.03</t>
+  </si>
+  <si>
+    <t>./high</t>
+  </si>
+  <si>
+    <t>DR.2</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.count</t>
+  </si>
+  <si>
+    <t>Number of times to repeat</t>
+  </si>
+  <si>
+    <t>A total count of the desired number of repetitions.</t>
+  </si>
+  <si>
+    <t>If you have both bounds and count, then this should be understood as within the bounds period, until count times happens.</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>Maximum number of times to repeat</t>
+  </si>
+  <si>
+    <t>A maximum value for the count of the desired repetitions (e.g. do something 6-8 times).</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>REQUESTED DURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>requested duration</t>
+  </si>
+  <si>
+    <t>The duration of an order as requested by the ordering clinician in CPRS. The duration is stored as one of the following upper case letters followed by an integer:     L - Months  W - Weeks  D - Days  H - Hours  M - Minutes  S - Seconds   Example: D6 = Six days.</t>
+  </si>
+  <si>
+    <t>For some events the duration is part of the definition of the event (e.g. IV infusions, where the duration is implicit in the specified quantity and rate). For others, it's part of the timing specification (e.g. exercise).</t>
+  </si>
+  <si>
+    <t>Some activities are not instantaneous and need to be maintained for a period of time.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @REQUESTED DURATION 55.01-151</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>How long when it happens (Max)</t>
+  </si>
+  <si>
+    <t>The upper limit of how long this thing happens for when it happens.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>The units of time for the duration, in UCUM units.</t>
+  </si>
+  <si>
+    <t>A unit of time (units from UCUM).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>PIVL.phase.unit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Event occurs frequency times per period</t>
+  </si>
+  <si>
+    <t>The number of times to repeat the action within the specified period / period range (i.e. both period and periodMax provided).</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>Event occurs up to frequencyMax times per period</t>
+  </si>
+  <si>
+    <t>If present, indicates that the frequency is a range - so to repeat between [frequency] and [frequencyMax] times within the period or period range.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.frequencyMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>SCHEDULE INTERVAL</t>
+  </si>
+  <si>
+    <t>schedul interval</t>
+  </si>
+  <si>
+    <t>Interval between administrations of IV</t>
+  </si>
+  <si>
+    <t>Timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @SCHEDULE INTERVAL 55.01-.17</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>Upper limit of period (3-4 hours)</t>
+  </si>
+  <si>
+    <t>If present, indicates that the period is a range from [period] to [periodMax], allowing expressing concepts such as "do this once every 3-5 days.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodMax</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>The units of time for the period in UCUM units.</t>
+  </si>
+  <si>
+    <t>[TBD]</t>
+  </si>
+  <si>
+    <t>Timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>mon | tue | wed | thu | fri | sat | sun</t>
+  </si>
+  <si>
+    <t>If one or more days of week is provided, then the action happens only on the specified day(s).</t>
+  </si>
+  <si>
+    <t>If no days are specified, the action is assumed to happen every day as otherwise specified. The elements frequency and period cannot be used as well as dayOfWeek.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week</t>
+  </si>
+  <si>
+    <t>Timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time
+</t>
+  </si>
+  <si>
+    <t>Time of day for action</t>
+  </si>
+  <si>
+    <t>Specified time of day for action to take place.</t>
+  </si>
+  <si>
+    <t>When time of day is specified, it is inferred that the action happens every day (as filtered by dayofWeek) on the specified times. The elements when, frequency and period cannot be used as well as timeOfDay.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>Regular life events the event is tied to</t>
+  </si>
+  <si>
+    <t>Real world events that the occurrence of the event should be tied to.</t>
+  </si>
+  <si>
+    <t>When more than one event is listed, the event is tied to the union of the specified events.</t>
+  </si>
+  <si>
+    <t>Timings are frequently determined by occurrences such as waking, eating and sleep.</t>
+  </si>
+  <si>
+    <t>Real world event relating to the schedule.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-timing</t>
+  </si>
+  <si>
+    <t>Timing.repeat.when</t>
+  </si>
+  <si>
+    <t>EIVL.event</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Minutes from event (before or after)</t>
+  </si>
+  <si>
+    <t>The number of minutes from the event. If the event code does not indicate whether the minutes is before or after the event, then the offset is assumed to be after the event.</t>
+  </si>
+  <si>
+    <t>Timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>EIVL.offset</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code</t>
+  </si>
+  <si>
+    <t>BID | TID | QID | AM | PM | QD | QOD | Q4H | Q6H +</t>
+  </si>
+  <si>
+    <t>A code for the timing schedule. Some codes such as BID are ubiquitous, but many institutions define their own additional codes. If a code is provided, the code is understood to be a complete statement of whatever is specified in the structured timing data, and either the code or the data may be used to interpret the Timing, with the exception that .repeat.bounds still applies over the code (and is not contained in the code).</t>
+  </si>
+  <si>
+    <t>BID etc are defined as 'at institutionally specified times'. For example, an institution may choose that BID is "always at 7am and 6pm".  If it is inappropriate for this choice to be made, the code BID should not be used. Instead, a distinct organization-specific code should be used in place of the HL7-defined BID code and/or the a structured representation should be used (in this case, specifying the two event times).</t>
+  </si>
+  <si>
+    <t>Code for a known / defined timing pattern.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
+  </si>
+  <si>
+    <t>Timing.code</t>
+  </si>
+  <si>
+    <t>QSC.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.timing.code.text</t>
+  </si>
+  <si>
+    <t>SCHEDULE</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>You may enter a standard schedule here or non-standard schedule.  If a standard schedule is entered, the doses will be given at the administration time(s). If a non-standard schedule is entered, and no administration times are entered, the doses will be given at time intervals past the start date/time of the IV order.     TID = (09-17-21) doses will be given at admin. times.     Q5H = (300 minutes) doses will be given every 300 minutes. The format of this field is [SCHEDULEspaceFREETEXTspaceFREETEXT] and 1-70 characters.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @SCHEDULE 55.01-.09</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
   </si>
   <si>
@@ -1686,6 +2193,154 @@
     <t>.routeCode</t>
   </si>
   <si>
+    <t>MedicationRequest.dosageInstruction.route.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.code</t>
+  </si>
+  <si>
+    <t>MED ROUTE</t>
+  </si>
+  <si>
+    <t>med route</t>
+  </si>
+  <si>
+    <t>This is the route of administration for this order. This is not required for IV Fluid orders.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @MED ROUTE 55.01-132</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.dosageInstruction.route.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction.method</t>
   </si>
   <si>
@@ -1738,14 +2393,17 @@
     <t>MedicationRequest.dosageInstruction.maxDosePerPeriod</t>
   </si>
   <si>
+    <t>REQUESTED IV LIMITATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
-    <t>Upper limit on medication per unit of time</t>
-  </si>
-  <si>
-    <t>Upper limit on medication per unit of time.</t>
+    <t>requested iv limitation</t>
+  </si>
+  <si>
+    <t>This is the length of time to administer, or the total volume  to administer, for IV fluid orders. The value may be in ML or CC for milliliters, L for liters, D for days, or H for hours.</t>
   </si>
   <si>
     <t>This is intended for use as an adjunct to the dosage when there is an upper cap.  For example "2 tablets every 4 hours to a maximum of 8/day".</t>
@@ -1755,6 +2413,9 @@
   </si>
   <si>
     <t>Dosage.maxDosePerPeriod</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @REQUESTED IV LIMITATION 55.01-152</t>
   </si>
   <si>
     <t>.maxDoseQuantity</t>
@@ -1803,10 +2464,6 @@
     <t>MedicationRequest.dosageInstruction.rate[x]</t>
   </si>
   <si>
-    <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
-  </si>
-  <si>
     <t>Amount of medication per unit of time</t>
   </si>
   <si>
@@ -1823,6 +2480,21 @@
   </si>
   <si>
     <t>.rateQuantity</t>
+  </si>
+  <si>
+    <t>rateRatio</t>
+  </si>
+  <si>
+    <t>INFUSION RATE</t>
+  </si>
+  <si>
+    <t>infusion rate</t>
+  </si>
+  <si>
+    <t>The rate at which the IV is to be administered.  This value, together with the total volume of the hyperal or the admixture type, is used to determine the time covered by one bag; hence the system can predict the bags needed during a specified time of coverage.  This field is free text for IVPB's.  For LVP's you must enter a number representing the infusion rate.  You may also specify the # of bags per day needed, which will become the default number of LABELS PER DAY.    Example: 125 = 125 ml/hr (IV system will calculate bags needed per day)         125@2 = 125 ml/hr with 2 labels per day     TITRATE@1 = TITRATE with 1 label per day  The format of this field is either a number only or  [FREE TEXT@NUMBER OF LABELS PER DAY].   Note:  If an administration time(s) is defined, the number of labels will reflect the administration time(s) for the IVPB type orders. For example:  One administration time of 12:00 is specified.  The infusion rate is entered as 125@3.  Only 1 label will print.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @INFUSION RATE 55.01-.08</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest</t>
@@ -1976,10 +2648,6 @@
   </si>
   <si>
     <t>MedicationRequest.substitution.allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether substitution is allowed or not</t>
@@ -2228,7 +2896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO97"/>
+  <dimension ref="A1:AO141"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2237,8 +2905,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.2421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.05859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.2890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="30.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3562,7 +4230,7 @@
         <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>45</v>
@@ -3603,10 +4271,10 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3672,7 +4340,7 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
@@ -3695,13 +4363,13 @@
         <v>98</v>
       </c>
       <c r="B13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -3719,13 +4387,13 @@
         <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3791,7 +4459,7 @@
         <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
@@ -3800,7 +4468,7 @@
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3814,13 +4482,13 @@
         <v>98</v>
       </c>
       <c r="B14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -3838,13 +4506,13 @@
         <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3910,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
@@ -3933,13 +4601,13 @@
         <v>98</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -3957,13 +4625,13 @@
         <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -4029,7 +4697,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
@@ -4052,13 +4720,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -4076,13 +4744,13 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4148,7 +4816,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>45</v>
@@ -4157,7 +4825,7 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>45</v>
@@ -4171,13 +4839,13 @@
         <v>98</v>
       </c>
       <c r="B17" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -4195,13 +4863,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4267,7 +4935,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
@@ -4276,7 +4944,7 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>45</v>
@@ -4290,13 +4958,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -4314,13 +4982,13 @@
         <v>45</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4386,7 +5054,7 @@
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
@@ -4409,13 +5077,13 @@
         <v>98</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -4433,13 +5101,13 @@
         <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4505,7 +5173,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
@@ -4528,13 +5196,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -4552,13 +5220,13 @@
         <v>45</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4624,7 +5292,7 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
@@ -4633,7 +5301,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4647,13 +5315,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -4671,13 +5339,13 @@
         <v>45</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4743,7 +5411,7 @@
         <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
@@ -4752,7 +5420,7 @@
         <v>45</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4766,13 +5434,13 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -4790,13 +5458,13 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4862,7 +5530,7 @@
         <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
@@ -4885,13 +5553,13 @@
         <v>98</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s" s="2">
         <v>43</v>
@@ -4909,13 +5577,13 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4981,7 +5649,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
@@ -5004,13 +5672,13 @@
         <v>98</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s" s="2">
         <v>43</v>
@@ -5028,13 +5696,13 @@
         <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5100,7 +5768,7 @@
         <v>110</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
@@ -5109,7 +5777,7 @@
         <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -5123,13 +5791,13 @@
         <v>98</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s" s="2">
         <v>43</v>
@@ -5147,13 +5815,13 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5219,7 +5887,7 @@
         <v>110</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
@@ -5242,13 +5910,13 @@
         <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>43</v>
@@ -5266,10 +5934,10 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>203</v>
@@ -5347,7 +6015,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -7003,7 +7671,7 @@
         <v>45</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="E41" t="s" s="2">
         <v>43</v>
@@ -7027,7 +7695,7 @@
         <v>311</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>312</v>
@@ -7352,7 +8020,7 @@
         <v>45</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s" s="2">
         <v>43</v>
@@ -7376,7 +8044,7 @@
         <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -10022,7 +10690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>480</v>
       </c>
@@ -10030,7 +10698,9 @@
       <c r="C67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
@@ -10038,7 +10708,7 @@
         <v>54</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>45</v>
@@ -10050,14 +10720,14 @@
         <v>226</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -10106,7 +10776,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10121,7 +10791,7 @@
         <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>45</v>
@@ -10141,7 +10811,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10167,14 +10837,14 @@
         <v>247</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -10202,10 +10872,10 @@
         <v>349</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>45</v>
@@ -10223,7 +10893,7 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
@@ -10258,7 +10928,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10284,10 +10954,10 @@
         <v>226</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -10338,7 +11008,7 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
@@ -10373,7 +11043,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10396,19 +11066,19 @@
         <v>55</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>45</v>
@@ -10457,7 +11127,7 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
@@ -10481,7 +11151,7 @@
         <v>45</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>45</v>
@@ -10492,7 +11162,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10512,20 +11182,18 @@
         <v>45</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>505</v>
+        <v>226</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>506</v>
+        <v>227</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>45</v>
@@ -10550,13 +11218,13 @@
         <v>45</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>509</v>
+        <v>45</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>510</v>
+        <v>45</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>45</v>
@@ -10574,7 +11242,7 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>511</v>
+        <v>229</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
@@ -10598,7 +11266,7 @@
         <v>45</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>512</v>
+        <v>230</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -10609,18 +11277,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>45</v>
@@ -10629,23 +11297,21 @@
         <v>45</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>514</v>
+        <v>232</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>515</v>
+        <v>233</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>45</v>
       </c>
@@ -10669,37 +11335,37 @@
         <v>45</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>520</v>
+        <v>235</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>45</v>
@@ -10717,7 +11383,7 @@
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -10728,7 +11394,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10739,7 +11405,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -10751,17 +11417,17 @@
         <v>55</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>45</v>
@@ -10786,13 +11452,13 @@
         <v>45</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>526</v>
+        <v>45</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>527</v>
+        <v>45</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>45</v>
@@ -10810,13 +11476,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -10834,7 +11500,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -10845,7 +11511,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10868,19 +11534,17 @@
         <v>55</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>247</v>
+        <v>515</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>45</v>
@@ -10905,13 +11569,13 @@
         <v>45</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>535</v>
+        <v>45</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>536</v>
+        <v>45</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>45</v>
@@ -10929,7 +11593,7 @@
         <v>45</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
@@ -10941,7 +11605,7 @@
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>45</v>
+        <v>520</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -10953,7 +11617,7 @@
         <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -10964,7 +11628,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10984,23 +11648,19 @@
         <v>45</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>540</v>
+        <v>226</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>541</v>
+        <v>227</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>45</v>
       </c>
@@ -11048,7 +11708,7 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>545</v>
+        <v>229</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
@@ -11072,7 +11732,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>538</v>
+        <v>230</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11083,18 +11743,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -11103,23 +11763,21 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>547</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>548</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>549</v>
+        <v>233</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11155,25 +11813,25 @@
         <v>45</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -11191,7 +11849,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>553</v>
+        <v>230</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11200,45 +11858,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="E77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11286,13 +11944,13 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>560</v>
+        <v>235</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11301,7 +11959,7 @@
         <v>45</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>45</v>
+        <v>529</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>45</v>
@@ -11310,7 +11968,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>561</v>
+        <v>45</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11321,7 +11979,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11344,18 +12002,16 @@
         <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>555</v>
+        <v>276</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" t="s" s="2">
-        <v>565</v>
-      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -11391,19 +12047,17 @@
         <v>45</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="AB78" s="2"/>
       <c r="AC78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
@@ -11427,7 +12081,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -11438,9 +12092,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>530</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>537</v>
+      </c>
       <c r="C79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11461,20 +12117,16 @@
         <v>55</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>568</v>
+        <v>276</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>45</v>
       </c>
@@ -11522,7 +12174,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -11546,7 +12198,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -11557,7 +12209,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>538</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11580,13 +12232,13 @@
         <v>45</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>576</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>577</v>
+        <v>228</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11637,7 +12289,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>575</v>
+        <v>229</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -11649,7 +12301,7 @@
         <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>45</v>
@@ -11658,10 +12310,10 @@
         <v>45</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>579</v>
+        <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -11672,18 +12324,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>581</v>
+        <v>539</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -11695,15 +12347,17 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -11740,25 +12394,25 @@
         <v>45</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
@@ -11785,41 +12439,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>582</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>541</v>
+      </c>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>232</v>
+        <v>542</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>233</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>214</v>
+        <v>544</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -11869,22 +12525,22 @@
         <v>45</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>235</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>45</v>
+        <v>547</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>45</v>
@@ -11893,56 +12549,60 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>230</v>
+        <v>548</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>45</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>99</v>
+        <v>387</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>212</v>
+        <v>552</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>407</v>
+        <v>553</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="Q83" t="s" s="2">
         <v>45</v>
       </c>
@@ -11986,22 +12646,22 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>408</v>
+        <v>556</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>45</v>
+        <v>557</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
@@ -12010,18 +12670,18 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>97</v>
+        <v>558</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>45</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12041,22 +12701,22 @@
         <v>45</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>276</v>
+        <v>474</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -12105,7 +12765,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12126,10 +12786,10 @@
         <v>45</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12140,7 +12800,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12160,20 +12820,18 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>592</v>
+        <v>474</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>45</v>
@@ -12222,7 +12880,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12243,27 +12901,29 @@
         <v>45</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>596</v>
+        <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>598</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
@@ -12271,25 +12931,29 @@
         <v>54</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12337,7 +13001,7 @@
         <v>45</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
@@ -12352,27 +13016,27 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>45</v>
+        <v>579</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>602</v>
+        <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>604</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12392,21 +13056,23 @@
         <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>576</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -12454,7 +13120,7 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
@@ -12475,10 +13141,10 @@
         <v>45</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>610</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -12489,7 +13155,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>612</v>
+        <v>585</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12509,16 +13175,16 @@
         <v>45</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12545,13 +13211,13 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>45</v>
+        <v>588</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>45</v>
+        <v>589</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
@@ -12569,7 +13235,7 @@
         <v>45</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>612</v>
+        <v>590</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -12593,18 +13259,18 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12618,31 +13284,31 @@
         <v>54</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>397</v>
+        <v>474</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>45</v>
@@ -12684,7 +13350,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -12696,7 +13362,7 @@
         <v>45</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>45</v>
@@ -12705,10 +13371,10 @@
         <v>45</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>619</v>
+        <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -12719,7 +13385,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12739,16 +13405,16 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>226</v>
+        <v>474</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>227</v>
+        <v>597</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>228</v>
+        <v>598</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -12799,7 +13465,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>229</v>
+        <v>599</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -12823,7 +13489,7 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -12832,42 +13498,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>622</v>
+        <v>600</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D91" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="E91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>99</v>
+        <v>573</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>232</v>
+        <v>602</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -12916,13 +13582,13 @@
         <v>45</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>235</v>
+        <v>604</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
@@ -12931,7 +13597,7 @@
         <v>45</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>45</v>
@@ -12940,7 +13606,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -12951,40 +13617,38 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>99</v>
+        <v>573</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>212</v>
+        <v>607</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -13033,13 +13697,13 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>408</v>
+        <v>609</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>45</v>
@@ -13057,7 +13721,7 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>97</v>
+        <v>580</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
@@ -13066,9 +13730,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13076,39 +13740,37 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="I93" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J93" t="s" s="2">
-        <v>625</v>
+        <v>73</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>628</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
-        <v>45</v>
+        <v>612</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>45</v>
@@ -13126,13 +13788,13 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>45</v>
+        <v>588</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>45</v>
+        <v>589</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -13150,10 +13812,10 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>54</v>
@@ -13171,21 +13833,21 @@
         <v>45</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>619</v>
+        <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>629</v>
+        <v>591</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>630</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13196,7 +13858,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -13205,18 +13867,20 @@
         <v>45</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M94" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>45</v>
@@ -13241,13 +13905,11 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>634</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="X94" s="2"/>
       <c r="Y94" t="s" s="2">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13265,13 +13927,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -13286,21 +13948,21 @@
         <v>45</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>636</v>
+        <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>637</v>
+        <v>230</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>638</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13311,7 +13973,7 @@
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -13320,18 +13982,20 @@
         <v>45</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>623</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>624</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -13380,13 +14044,13 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>45</v>
@@ -13398,13 +14062,13 @@
         <v>45</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>643</v>
+        <v>45</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>636</v>
+        <v>45</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>644</v>
+        <v>230</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
@@ -13415,11 +14079,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13435,19 +14099,23 @@
         <v>45</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>647</v>
+        <v>73</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
       </c>
@@ -13471,13 +14139,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>45</v>
+        <v>631</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>45</v>
+        <v>632</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -13495,7 +14163,7 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
@@ -13519,7 +14187,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -13530,7 +14198,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13541,7 +14209,7 @@
         <v>43</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>45</v>
@@ -13550,20 +14218,18 @@
         <v>45</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
@@ -13612,41 +14278,5201 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P98" s="2"/>
+      <c r="Q98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P99" s="2"/>
+      <c r="Q99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P100" s="2"/>
+      <c r="Q100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="AF97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG97" t="s" s="2">
+      <c r="B101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK97" t="s" s="2">
+      <c r="G101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N101" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="AL97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM97" t="s" s="2">
+      <c r="O101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P101" s="2"/>
+      <c r="Q101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE101" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="AN97" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO97" t="s" s="2">
+      <c r="AF101" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P102" s="2"/>
+      <c r="Q102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P103" s="2"/>
+      <c r="Q103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P109" s="2"/>
+      <c r="Q109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P110" s="2"/>
+      <c r="Q110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P111" s="2"/>
+      <c r="Q111" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="R111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P112" s="2"/>
+      <c r="Q112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P113" s="2"/>
+      <c r="Q113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="O115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="E119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AB122" s="2"/>
+      <c r="AC122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="E123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>802</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN126" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO126" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M127" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN127" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO127" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>806</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="N128" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>805</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="AN128" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO128" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="AN129" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO129" t="s" s="2">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AN130" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO130" t="s" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AN131" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO131" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="AN132" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AO132" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>841</v>
+      </c>
+      <c r="AN133" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO133" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO134" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO135" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN136" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO136" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AN137" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO137" t="s" s="2">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="AN138" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO138" t="s" s="2">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>863</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="AN139" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO139" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO140" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO97">
+  <autoFilter ref="A1:AO141">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13656,7 +19482,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI96">
+  <conditionalFormatting sqref="A2:AI140">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$151</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5230" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5606" uniqueCount="891">
   <si>
     <t>Path</t>
   </si>
@@ -1103,10 +1103,6 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
-  </si>
-  <si>
     <t>Medication to be taken</t>
   </si>
   <si>
@@ -1123,6 +1119,13 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>…code</t>
@@ -1146,10 +1149,192 @@
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
   </si>
   <si>
+    <t>medicationCodeableConcept</t>
+  </si>
+  <si>
     <t>MedicationRequest.medication[x].id</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>ORDERABLE ITEM</t>
+  </si>
+  <si>
+    <t>orderable item</t>
+  </si>
+  <si>
+    <t>This is the Orderable Item associated with the order. If the order is a unit dose order, all dispense drugs entered must be matched to the order's primary drug. If the order is an IV, at lest one of the additives or solutions entered must match the orderable item.</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @ORDERABLE ITEM 55.01-130</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.subject</t>
@@ -1697,13 +1882,6 @@
     <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Timing.repeat.bounds[x]</t>
   </si>
   <si>
@@ -2059,31 +2237,6 @@
     <t>MedicationRequest.dosageInstruction.timing.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.timing.code.text</t>
   </si>
   <si>
@@ -2096,22 +2249,7 @@
     <t>You may enter a standard schedule here or non-standard schedule.  If a standard schedule is entered, the doses will be given at the administration time(s). If a non-standard schedule is entered, and no administration times are entered, the doses will be given at time intervals past the start date/time of the IV order.     TID = (09-17-21) doses will be given at admin. times.     Q5H = (300 minutes) doses will be given every 300 minutes. The format of this field is [SCHEDULEspaceFREETEXTspaceFREETEXT] and 1-70 characters.</t>
   </si>
   <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
     <t>Pharmacy Patient @SCHEDULE 55.01-.09</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.asNeeded[x]</t>
@@ -2211,51 +2349,12 @@
     <t>MedicationRequest.dosageInstruction.route.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
     <t>http://va.gov/terminology/vistaDefinedTerms/53.1-3</t>
   </si>
   <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.code</t>
   </si>
   <si>
@@ -2268,77 +2367,16 @@
     <t>This is the route of administration for this order. This is not required for IV Fluid orders.</t>
   </si>
   <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
     <t>Pharmacy Patient @MED ROUTE 55.01-132</t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction.route.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction.method</t>
@@ -2896,7 +2934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO141"/>
+  <dimension ref="A1:AO151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8153,16 +8191,16 @@
         <v>55</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -8188,28 +8226,26 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="Y45" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA45" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB45" s="2"/>
       <c r="AC45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>344</v>
@@ -8230,32 +8266,34 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>54</v>
@@ -8267,18 +8305,20 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>227</v>
+        <v>345</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -8303,13 +8343,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -8327,10 +8367,10 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>229</v>
+        <v>344</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>54</v>
@@ -8345,35 +8385,35 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -8385,17 +8425,15 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -8432,22 +8470,26 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AE47" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG47" s="2"/>
+      <c r="AG47" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
@@ -8473,43 +8515,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>361</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>232</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>233</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>214</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -8547,25 +8587,25 @@
         <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -8574,27 +8614,27 @@
         <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>365</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8605,7 +8645,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -8614,21 +8654,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -8676,13 +8718,13 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
@@ -8694,24 +8736,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8722,7 +8764,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -8734,13 +8776,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>381</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>227</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>228</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -8791,13 +8833,13 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>380</v>
+        <v>229</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
@@ -8815,51 +8857,51 @@
         <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -8896,25 +8938,25 @@
         <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>385</v>
+        <v>235</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -8923,27 +8965,27 @@
         <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>393</v>
+        <v>230</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8966,16 +9008,20 @@
         <v>55</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>397</v>
+        <v>67</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -9023,7 +9069,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -9035,30 +9081,30 @@
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>402</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -9078,18 +9124,20 @@
         <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>226</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -9138,7 +9186,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -9162,52 +9210,54 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>230</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -9255,13 +9305,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>235</v>
+        <v>392</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -9270,7 +9320,7 @@
         <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>45</v>
@@ -9279,52 +9329,52 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>230</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -9372,13 +9422,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -9396,34 +9446,32 @@
         <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D56" t="s" s="2">
-        <v>410</v>
-      </c>
+      <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>45</v>
@@ -9432,18 +9480,20 @@
         <v>55</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -9494,7 +9544,7 @@
         <v>409</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>54</v>
@@ -9506,27 +9556,27 @@
         <v>45</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9549,17 +9599,19 @@
         <v>55</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -9608,7 +9660,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -9617,7 +9669,7 @@
         <v>54</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>424</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>45</v>
@@ -9626,55 +9678,59 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="E58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -9723,10 +9779,10 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>54</v>
@@ -9738,27 +9794,27 @@
         <v>45</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>45</v>
+        <v>426</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9769,7 +9825,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -9781,7 +9837,7 @@
         <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>247</v>
+        <v>433</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>434</v>
@@ -9816,66 +9872,66 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9898,17 +9954,15 @@
         <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -9957,7 +10011,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -9975,53 +10029,55 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="E61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -10072,42 +10128,42 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AK61" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10118,7 +10174,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -10127,20 +10183,18 @@
         <v>45</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>462</v>
-      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -10189,34 +10243,34 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>461</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>45</v>
@@ -10224,7 +10278,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10339,7 +10393,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10409,16 +10463,16 @@
         <v>45</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>235</v>
@@ -10454,19 +10508,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>468</v>
-      </c>
+      <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>43</v>
       </c>
@@ -10474,24 +10524,26 @@
         <v>44</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>469</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>470</v>
+        <v>212</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
@@ -10540,7 +10592,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>235</v>
+        <v>469</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -10555,7 +10607,7 @@
         <v>45</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>45</v>
@@ -10564,7 +10616,7 @@
         <v>45</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
@@ -10573,23 +10625,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="E66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>45</v>
@@ -10598,18 +10652,18 @@
         <v>55</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="L66" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>477</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>45</v>
       </c>
@@ -10657,10 +10711,10 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>54</v>
@@ -10672,13 +10726,13 @@
         <v>45</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>45</v>
+        <v>476</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>477</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>479</v>
@@ -10687,20 +10741,18 @@
         <v>45</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>45</v>
+        <v>480</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D67" t="s" s="2">
-        <v>481</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>43</v>
       </c>
@@ -10708,7 +10760,7 @@
         <v>54</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>45</v>
@@ -10717,7 +10769,7 @@
         <v>55</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>226</v>
+        <v>283</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>482</v>
@@ -10776,7 +10828,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -10785,22 +10837,22 @@
         <v>54</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>45</v>
+        <v>485</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AK67" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
@@ -10811,7 +10863,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10822,7 +10874,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -10831,21 +10883,19 @@
         <v>45</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>247</v>
+        <v>489</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>490</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>45</v>
       </c>
@@ -10869,58 +10919,58 @@
         <v>45</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>45</v>
@@ -10939,7 +10989,7 @@
         <v>43</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>45</v>
@@ -10948,10 +10998,10 @@
         <v>45</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>495</v>
@@ -10959,7 +11009,9 @@
       <c r="L69" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M69" s="2"/>
+      <c r="M69" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>45</v>
@@ -10984,13 +11036,13 @@
         <v>45</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>45</v>
+        <v>498</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>45</v>
+        <v>499</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>45</v>
@@ -11008,13 +11060,13 @@
         <v>45</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>45</v>
@@ -11026,24 +11078,24 @@
         <v>45</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>45</v>
+        <v>500</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>45</v>
+        <v>501</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>45</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11054,7 +11106,7 @@
         <v>43</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>45</v>
@@ -11063,23 +11115,21 @@
         <v>45</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>45</v>
       </c>
@@ -11127,13 +11177,13 @@
         <v>45</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>45</v>
@@ -11145,16 +11195,16 @@
         <v>45</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>45</v>
@@ -11162,7 +11212,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11173,7 +11223,7 @@
         <v>43</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>45</v>
@@ -11185,13 +11235,13 @@
         <v>45</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>226</v>
+        <v>513</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>227</v>
+        <v>514</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>228</v>
+        <v>515</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -11242,13 +11292,13 @@
         <v>45</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>229</v>
+        <v>512</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>45</v>
@@ -11260,13 +11310,13 @@
         <v>45</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>45</v>
+        <v>516</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>45</v>
+        <v>517</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>230</v>
+        <v>518</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>45</v>
@@ -11277,11 +11327,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -11300,16 +11350,16 @@
         <v>45</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>99</v>
+        <v>520</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>232</v>
+        <v>521</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>233</v>
+        <v>522</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>214</v>
+        <v>523</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -11347,19 +11397,19 @@
         <v>45</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>519</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>43</v>
@@ -11377,13 +11427,13 @@
         <v>45</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>45</v>
+        <v>524</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>230</v>
+        <v>525</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>45</v>
@@ -11394,7 +11444,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11405,7 +11455,7 @@
         <v>43</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>45</v>
@@ -11414,21 +11464,19 @@
         <v>45</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>387</v>
+        <v>226</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>509</v>
+        <v>227</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>510</v>
+        <v>228</v>
       </c>
       <c r="M73" s="2"/>
-      <c r="N73" t="s" s="2">
-        <v>511</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>45</v>
       </c>
@@ -11476,13 +11524,13 @@
         <v>45</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>512</v>
+        <v>229</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>45</v>
@@ -11500,7 +11548,7 @@
         <v>45</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>513</v>
+        <v>230</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>45</v>
@@ -11511,18 +11559,18 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>45</v>
@@ -11531,21 +11579,21 @@
         <v>45</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>515</v>
+        <v>99</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>516</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>45</v>
       </c>
@@ -11581,31 +11629,31 @@
         <v>45</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>519</v>
+        <v>235</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>520</v>
+        <v>45</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>45</v>
@@ -11617,7 +11665,7 @@
         <v>45</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>521</v>
+        <v>230</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>45</v>
@@ -11626,23 +11674,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B75" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>528</v>
+      </c>
       <c r="C75" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="E75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>45</v>
@@ -11651,13 +11703,13 @@
         <v>45</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>226</v>
+        <v>530</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>227</v>
+        <v>531</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>228</v>
+        <v>532</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -11708,13 +11760,13 @@
         <v>45</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>45</v>
@@ -11723,7 +11775,7 @@
         <v>45</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>45</v>
+        <v>533</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>45</v>
@@ -11732,7 +11784,7 @@
         <v>45</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>45</v>
@@ -11743,18 +11795,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>45</v>
@@ -11763,21 +11815,21 @@
         <v>45</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>99</v>
+        <v>535</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>232</v>
+        <v>536</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>45</v>
       </c>
@@ -11813,25 +11865,25 @@
         <v>45</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>235</v>
+        <v>539</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>45</v>
@@ -11849,7 +11901,7 @@
         <v>45</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>230</v>
+        <v>540</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>45</v>
@@ -11860,22 +11912,20 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="E77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>55</v>
@@ -11884,19 +11934,21 @@
         <v>45</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>526</v>
+        <v>226</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>527</v>
+        <v>543</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
+      <c r="N77" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>45</v>
       </c>
@@ -11944,13 +11996,13 @@
         <v>45</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>235</v>
+        <v>546</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>45</v>
@@ -11959,7 +12011,7 @@
         <v>45</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>45</v>
@@ -11968,7 +12020,7 @@
         <v>45</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>45</v>
+        <v>540</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>45</v>
@@ -11979,7 +12031,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11990,7 +12042,7 @@
         <v>43</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>45</v>
@@ -12002,16 +12054,18 @@
         <v>55</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>531</v>
+        <v>549</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>532</v>
+        <v>550</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>45</v>
       </c>
@@ -12035,35 +12089,37 @@
         <v>45</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>45</v>
+        <v>552</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>45</v>
+        <v>553</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AB78" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC78" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>534</v>
+        <v>45</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>45</v>
@@ -12081,7 +12137,7 @@
         <v>45</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>45</v>
@@ -12092,11 +12148,9 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>537</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>45</v>
       </c>
@@ -12117,13 +12171,13 @@
         <v>55</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -12174,7 +12228,7 @@
         <v>45</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>535</v>
+        <v>558</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>43</v>
@@ -12198,7 +12252,7 @@
         <v>45</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>45</v>
@@ -12209,7 +12263,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12229,19 +12283,23 @@
         <v>45</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>226</v>
+        <v>560</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>227</v>
+        <v>561</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>45</v>
       </c>
@@ -12289,7 +12347,7 @@
         <v>45</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>229</v>
+        <v>565</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>43</v>
@@ -12313,7 +12371,7 @@
         <v>45</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>230</v>
+        <v>566</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>45</v>
@@ -12324,18 +12382,18 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>45</v>
@@ -12347,17 +12405,15 @@
         <v>45</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>45</v>
@@ -12394,25 +12450,25 @@
         <v>45</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>45</v>
@@ -12439,43 +12495,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D82" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>387</v>
+        <v>99</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>542</v>
+        <v>232</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>543</v>
+        <v>233</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>544</v>
+        <v>214</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -12513,34 +12567,34 @@
         <v>45</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>545</v>
+        <v>235</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>546</v>
+        <v>45</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>45</v>
@@ -12549,34 +12603,32 @@
         <v>45</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>548</v>
+        <v>230</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>549</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D83" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>45</v>
@@ -12585,24 +12637,22 @@
         <v>55</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>552</v>
+        <v>570</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P83" t="s" s="2">
-        <v>555</v>
-      </c>
+      <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
         <v>45</v>
       </c>
@@ -12646,22 +12696,22 @@
         <v>45</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>546</v>
+        <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>557</v>
+        <v>45</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>45</v>
@@ -12670,18 +12720,18 @@
         <v>45</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>558</v>
+        <v>574</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>559</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12704,19 +12754,17 @@
         <v>55</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>561</v>
+        <v>577</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>45</v>
@@ -12765,7 +12813,7 @@
         <v>45</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>43</v>
@@ -12777,7 +12825,7 @@
         <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>45</v>
+        <v>581</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>45</v>
@@ -12789,7 +12837,7 @@
         <v>45</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>45</v>
@@ -12800,7 +12848,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12820,16 +12868,16 @@
         <v>45</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>568</v>
+        <v>227</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>569</v>
+        <v>228</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12880,7 +12928,7 @@
         <v>45</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>570</v>
+        <v>229</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>43</v>
@@ -12904,7 +12952,7 @@
         <v>45</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>566</v>
+        <v>230</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>45</v>
@@ -12913,47 +12961,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D86" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>573</v>
+        <v>99</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>574</v>
+        <v>232</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>575</v>
+        <v>233</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>45</v>
       </c>
@@ -12989,25 +13033,25 @@
         <v>45</v>
       </c>
       <c r="AA86" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC86" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD86" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>578</v>
+        <v>235</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>45</v>
@@ -13016,7 +13060,7 @@
         <v>45</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>579</v>
+        <v>45</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>45</v>
@@ -13025,7 +13069,7 @@
         <v>45</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>45</v>
@@ -13034,45 +13078,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="B87" s="2"/>
+        <v>584</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="C87" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="E87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>45</v>
       </c>
@@ -13120,13 +13164,13 @@
         <v>45</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>584</v>
+        <v>235</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>45</v>
@@ -13135,7 +13179,7 @@
         <v>45</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>45</v>
+        <v>590</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>45</v>
@@ -13144,7 +13188,7 @@
         <v>45</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>580</v>
+        <v>45</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>45</v>
@@ -13155,7 +13199,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13178,13 +13222,13 @@
         <v>55</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -13211,31 +13255,29 @@
         <v>45</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AB88" s="2"/>
       <c r="AC88" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>43</v>
@@ -13259,20 +13301,22 @@
         <v>45</v>
       </c>
       <c r="AM88" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AN88" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B89" s="2"/>
+      <c r="B89" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="C89" t="s" s="2">
         <v>45</v>
       </c>
@@ -13284,7 +13328,7 @@
         <v>54</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>45</v>
@@ -13293,22 +13337,22 @@
         <v>55</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>474</v>
+        <v>276</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>594</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="R89" t="s" s="2">
         <v>45</v>
@@ -13350,7 +13394,7 @@
         <v>45</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>43</v>
@@ -13374,7 +13418,7 @@
         <v>45</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>45</v>
@@ -13385,7 +13429,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13405,16 +13449,16 @@
         <v>45</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>474</v>
+        <v>226</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>597</v>
+        <v>227</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>598</v>
+        <v>228</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -13465,7 +13509,7 @@
         <v>45</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>599</v>
+        <v>229</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>43</v>
@@ -13489,7 +13533,7 @@
         <v>45</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>45</v>
@@ -13498,42 +13542,42 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>573</v>
+        <v>99</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>602</v>
+        <v>232</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="M91" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>45</v>
@@ -13570,25 +13614,25 @@
         <v>45</v>
       </c>
       <c r="AA91" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC91" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD91" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>604</v>
+        <v>235</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>45</v>
@@ -13597,7 +13641,7 @@
         <v>45</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>605</v>
+        <v>45</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>45</v>
@@ -13606,7 +13650,7 @@
         <v>45</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>580</v>
+        <v>230</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>45</v>
@@ -13615,15 +13659,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="E92" t="s" s="2">
         <v>43</v>
       </c>
@@ -13631,7 +13677,7 @@
         <v>54</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>45</v>
@@ -13640,15 +13686,17 @@
         <v>55</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>573</v>
+        <v>448</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>45</v>
@@ -13697,7 +13745,7 @@
         <v>45</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>43</v>
@@ -13706,13 +13754,13 @@
         <v>54</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>45</v>
+        <v>606</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>45</v>
@@ -13721,24 +13769,26 @@
         <v>45</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>45</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="E93" t="s" s="2">
         <v>43</v>
       </c>
@@ -13755,22 +13805,26 @@
         <v>55</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="Q93" t="s" s="2">
-        <v>612</v>
+        <v>45</v>
       </c>
       <c r="R93" t="s" s="2">
         <v>45</v>
@@ -13788,13 +13842,13 @@
         <v>45</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>588</v>
+        <v>45</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>45</v>
@@ -13812,7 +13866,7 @@
         <v>45</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>43</v>
@@ -13821,13 +13875,13 @@
         <v>54</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>45</v>
@@ -13836,18 +13890,18 @@
         <v>45</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>45</v>
+        <v>618</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13858,7 +13912,7 @@
         <v>43</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>45</v>
@@ -13870,18 +13924,20 @@
         <v>55</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>73</v>
+        <v>535</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>45</v>
       </c>
@@ -13905,11 +13961,13 @@
         <v>45</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="X94" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y94" t="s" s="2">
-        <v>618</v>
+        <v>45</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>45</v>
@@ -13927,13 +13985,13 @@
         <v>45</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>45</v>
@@ -13951,7 +14009,7 @@
         <v>45</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>230</v>
+        <v>625</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>45</v>
@@ -13962,7 +14020,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13973,7 +14031,7 @@
         <v>43</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>45</v>
@@ -13985,17 +14043,15 @@
         <v>55</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>621</v>
+        <v>535</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>624</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>45</v>
@@ -14044,32 +14100,32 @@
         <v>45</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="AF95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AN95" t="s" s="2">
         <v>45</v>
       </c>
@@ -14077,23 +14133,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>631</v>
+      </c>
       <c r="E96" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>45</v>
@@ -14102,19 +14160,19 @@
         <v>55</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>73</v>
+        <v>632</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>45</v>
@@ -14139,13 +14197,13 @@
         <v>45</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>631</v>
+        <v>45</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>632</v>
+        <v>45</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>45</v>
@@ -14163,13 +14221,13 @@
         <v>45</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>45</v>
@@ -14178,7 +14236,7 @@
         <v>45</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>45</v>
+        <v>638</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>45</v>
@@ -14187,7 +14245,7 @@
         <v>45</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>45</v>
@@ -14198,7 +14256,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14221,16 +14279,20 @@
         <v>55</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N97" t="s" s="2">
         <v>636</v>
       </c>
-      <c r="K97" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>45</v>
       </c>
@@ -14278,7 +14340,7 @@
         <v>45</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>43</v>
@@ -14302,7 +14364,7 @@
         <v>45</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>45</v>
@@ -14313,7 +14375,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14336,17 +14398,15 @@
         <v>55</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>644</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>45</v>
@@ -14371,13 +14431,13 @@
         <v>45</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>313</v>
+        <v>241</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>45</v>
@@ -14395,7 +14455,7 @@
         <v>45</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>43</v>
@@ -14419,7 +14479,7 @@
         <v>45</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>45</v>
@@ -14428,9 +14488,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14444,31 +14504,31 @@
         <v>54</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>226</v>
+        <v>535</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>227</v>
+        <v>652</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>228</v>
+        <v>653</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>45</v>
@@ -14510,7 +14570,7 @@
         <v>45</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>229</v>
+        <v>654</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>43</v>
@@ -14534,7 +14594,7 @@
         <v>45</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>230</v>
+        <v>639</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>45</v>
@@ -14545,18 +14605,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>45</v>
@@ -14565,20 +14625,18 @@
         <v>45</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>99</v>
+        <v>535</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>232</v>
+        <v>656</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>45</v>
@@ -14615,25 +14673,25 @@
         <v>45</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>235</v>
+        <v>658</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>45</v>
@@ -14651,7 +14709,7 @@
         <v>45</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>230</v>
+        <v>639</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>45</v>
@@ -14660,23 +14718,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>660</v>
+      </c>
       <c r="E101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>45</v>
@@ -14685,20 +14745,16 @@
         <v>55</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>45</v>
       </c>
@@ -14746,13 +14802,13 @@
         <v>45</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>45</v>
@@ -14761,7 +14817,7 @@
         <v>45</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>45</v>
+        <v>664</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>45</v>
@@ -14770,26 +14826,24 @@
         <v>45</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>659</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D102" t="s" s="2">
-        <v>661</v>
-      </c>
+      <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
         <v>43</v>
       </c>
@@ -14797,7 +14851,7 @@
         <v>54</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>45</v>
@@ -14806,20 +14860,16 @@
         <v>55</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>226</v>
+        <v>632</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>45</v>
       </c>
@@ -14867,7 +14917,7 @@
         <v>45</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>43</v>
@@ -14882,7 +14932,7 @@
         <v>45</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>667</v>
+        <v>45</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>45</v>
@@ -14891,18 +14941,18 @@
         <v>45</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>668</v>
+        <v>639</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO102" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
         <v>669</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14916,7 +14966,7 @@
         <v>54</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>45</v>
@@ -14925,24 +14975,22 @@
         <v>55</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>671</v>
+        <v>73</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P103" s="2"/>
       <c r="Q103" t="s" s="2">
-        <v>45</v>
+        <v>671</v>
       </c>
       <c r="R103" t="s" s="2">
         <v>45</v>
@@ -14960,13 +15008,13 @@
         <v>45</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="Z103" t="s" s="2">
         <v>45</v>
@@ -14984,7 +15032,7 @@
         <v>45</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>43</v>
@@ -15008,7 +15056,7 @@
         <v>45</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>45</v>
@@ -15019,7 +15067,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -15030,7 +15078,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>45</v>
@@ -15042,20 +15090,18 @@
         <v>55</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>683</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>45</v>
       </c>
@@ -15079,13 +15125,11 @@
         <v>45</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="X104" s="2"/>
       <c r="Y104" t="s" s="2">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="Z104" t="s" s="2">
         <v>45</v>
@@ -15103,13 +15147,13 @@
         <v>45</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>45</v>
@@ -15127,7 +15171,7 @@
         <v>45</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>687</v>
+        <v>230</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>45</v>
@@ -15138,7 +15182,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15149,7 +15193,7 @@
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>45</v>
@@ -15161,18 +15205,18 @@
         <v>55</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>247</v>
+        <v>680</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" t="s" s="2">
-        <v>691</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>45</v>
       </c>
@@ -15196,13 +15240,13 @@
         <v>45</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>692</v>
+        <v>45</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>693</v>
+        <v>45</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>45</v>
@@ -15220,13 +15264,13 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>45</v>
@@ -15244,7 +15288,7 @@
         <v>45</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>695</v>
+        <v>230</v>
       </c>
       <c r="AN105" t="s" s="2">
         <v>45</v>
@@ -15255,7 +15299,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15266,7 +15310,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>45</v>
@@ -15275,19 +15319,23 @@
         <v>45</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>227</v>
+        <v>686</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>687</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -15311,13 +15359,13 @@
         <v>45</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>45</v>
+        <v>690</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>45</v>
+        <v>691</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>45</v>
@@ -15335,13 +15383,13 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>229</v>
+        <v>692</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>45</v>
@@ -15359,7 +15407,7 @@
         <v>45</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>230</v>
+        <v>693</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>45</v>
@@ -15370,18 +15418,18 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>45</v>
@@ -15390,20 +15438,18 @@
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>99</v>
+        <v>695</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>232</v>
+        <v>696</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>45</v>
@@ -15440,25 +15486,25 @@
         <v>45</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>235</v>
+        <v>698</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>45</v>
@@ -15476,7 +15522,7 @@
         <v>45</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>230</v>
+        <v>699</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>45</v>
@@ -15487,7 +15533,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15498,7 +15544,7 @@
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>45</v>
@@ -15510,20 +15556,18 @@
         <v>55</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>652</v>
+        <v>247</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -15547,13 +15591,13 @@
         <v>45</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>45</v>
+        <v>704</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>45</v>
+        <v>705</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>45</v>
@@ -15571,13 +15615,13 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>45</v>
@@ -15595,18 +15639,18 @@
         <v>45</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>658</v>
+        <v>707</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>659</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15721,7 +15765,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15836,9 +15880,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15849,10 +15893,10 @@
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>45</v>
@@ -15861,26 +15905,26 @@
         <v>55</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>702</v>
+        <v>363</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>703</v>
+        <v>364</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>704</v>
+        <v>365</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>705</v>
+        <v>366</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P111" s="2"/>
       <c r="Q111" t="s" s="2">
-        <v>706</v>
+        <v>45</v>
       </c>
       <c r="R111" t="s" s="2">
         <v>45</v>
@@ -15922,13 +15966,13 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>707</v>
+        <v>367</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>45</v>
@@ -15946,24 +15990,26 @@
         <v>45</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>708</v>
+        <v>368</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO111" t="s" s="2">
-        <v>709</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="E112" t="s" s="2">
         <v>43</v>
       </c>
@@ -15971,7 +16017,7 @@
         <v>54</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>45</v>
@@ -15983,15 +16029,17 @@
         <v>226</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -16039,7 +16087,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>714</v>
+        <v>417</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -16054,7 +16102,7 @@
         <v>45</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>45</v>
+        <v>715</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>45</v>
@@ -16063,26 +16111,24 @@
         <v>45</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>715</v>
+        <v>418</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO112" t="s" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
         <v>716</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D113" t="s" s="2">
-        <v>718</v>
-      </c>
+      <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
@@ -16090,7 +16136,7 @@
         <v>54</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>45</v>
@@ -16099,18 +16145,18 @@
         <v>55</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>73</v>
+        <v>717</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="L113" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="M113" s="2"/>
-      <c r="N113" t="s" s="2">
-        <v>721</v>
-      </c>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>45</v>
       </c>
@@ -16134,13 +16180,13 @@
         <v>45</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>45</v>
+        <v>721</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>45</v>
+        <v>722</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>45</v>
@@ -16158,7 +16204,7 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
@@ -16173,7 +16219,7 @@
         <v>45</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>723</v>
+        <v>45</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>45</v>
@@ -16188,12 +16234,12 @@
         <v>45</v>
       </c>
       <c r="AO113" t="s" s="2">
-        <v>725</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -16216,15 +16262,17 @@
         <v>55</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>728</v>
       </c>
-      <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
         <v>729</v>
       </c>
@@ -16251,13 +16299,13 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>45</v>
+        <v>730</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>45</v>
+        <v>731</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -16275,7 +16323,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -16299,18 +16347,18 @@
         <v>45</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>732</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16333,7 +16381,7 @@
         <v>55</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>734</v>
+        <v>247</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>735</v>
@@ -16341,11 +16389,9 @@
       <c r="L115" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M115" t="s" s="2">
+      <c r="M115" s="2"/>
+      <c r="N115" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -16370,13 +16416,13 @@
         <v>45</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>45</v>
+        <v>738</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>45</v>
+        <v>739</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>45</v>
@@ -16394,7 +16440,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -16418,13 +16464,13 @@
         <v>45</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO115" t="s" s="2">
-        <v>741</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -16449,23 +16495,19 @@
         <v>45</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J116" t="s" s="2">
         <v>226</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>743</v>
+        <v>227</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>665</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>45</v>
       </c>
@@ -16513,7 +16555,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>666</v>
+        <v>229</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -16537,29 +16579,29 @@
         <v>45</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>668</v>
+        <v>230</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO116" t="s" s="2">
-        <v>669</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>45</v>
@@ -16568,23 +16610,21 @@
         <v>45</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>247</v>
+        <v>99</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>746</v>
+        <v>232</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>747</v>
+        <v>233</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -16608,37 +16648,37 @@
         <v>45</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>750</v>
+        <v>45</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>751</v>
+        <v>45</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA117" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC117" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD117" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>752</v>
+        <v>235</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>45</v>
@@ -16656,7 +16696,7 @@
         <v>45</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>753</v>
+        <v>230</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>45</v>
@@ -16667,7 +16707,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16678,7 +16718,7 @@
         <v>43</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>45</v>
@@ -16690,19 +16730,19 @@
         <v>55</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>755</v>
+        <v>362</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>756</v>
+        <v>363</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>757</v>
+        <v>364</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>758</v>
+        <v>365</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>759</v>
+        <v>366</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>45</v>
@@ -16751,13 +16791,13 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>760</v>
+        <v>367</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>45</v>
@@ -16775,26 +16815,24 @@
         <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>753</v>
+        <v>368</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D119" t="s" s="2">
-        <v>762</v>
-      </c>
+      <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
         <v>43</v>
       </c>
@@ -16802,29 +16840,25 @@
         <v>54</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>763</v>
+        <v>226</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>764</v>
+        <v>227</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>767</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
         <v>45</v>
       </c>
@@ -16872,7 +16906,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>768</v>
+        <v>229</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16887,7 +16921,7 @@
         <v>45</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>769</v>
+        <v>45</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>45</v>
@@ -16896,7 +16930,7 @@
         <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>770</v>
+        <v>230</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>45</v>
@@ -16907,18 +16941,18 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16927,23 +16961,21 @@
         <v>45</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>772</v>
+        <v>99</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>773</v>
+        <v>232</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>774</v>
+        <v>233</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>776</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>45</v>
       </c>
@@ -16979,25 +17011,25 @@
         <v>45</v>
       </c>
       <c r="AA120" t="s" s="2">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AC120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD120" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>777</v>
+        <v>235</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -17015,7 +17047,7 @@
         <v>45</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>778</v>
+        <v>230</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>45</v>
@@ -17024,9 +17056,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -17040,7 +17072,7 @@
         <v>54</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>45</v>
@@ -17049,24 +17081,26 @@
         <v>55</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>772</v>
+        <v>67</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>780</v>
+        <v>373</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="M121" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N121" t="s" s="2">
-        <v>782</v>
+        <v>376</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P121" s="2"/>
       <c r="Q121" t="s" s="2">
-        <v>45</v>
+        <v>748</v>
       </c>
       <c r="R121" t="s" s="2">
         <v>45</v>
@@ -17108,7 +17142,7 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>783</v>
+        <v>377</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
@@ -17132,18 +17166,18 @@
         <v>45</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>778</v>
+        <v>378</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>784</v>
+        <v>749</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17166,20 +17200,18 @@
         <v>55</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>763</v>
+        <v>226</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>785</v>
+        <v>381</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>786</v>
+        <v>382</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>788</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>45</v>
       </c>
@@ -17215,17 +17247,19 @@
         <v>45</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="AB122" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>534</v>
+        <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>789</v>
+        <v>384</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
@@ -17249,27 +17283,25 @@
         <v>45</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>790</v>
+        <v>385</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>791</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>792</v>
+        <v>751</v>
       </c>
       <c r="E123" t="s" s="2">
         <v>43</v>
@@ -17287,19 +17319,17 @@
         <v>55</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>763</v>
+        <v>73</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>793</v>
+        <v>752</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>794</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>787</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>788</v>
+        <v>391</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
@@ -17348,7 +17378,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>789</v>
+        <v>392</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -17363,7 +17393,7 @@
         <v>45</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>795</v>
+        <v>754</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>45</v>
@@ -17372,18 +17402,18 @@
         <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>790</v>
+        <v>394</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>796</v>
+        <v>755</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17403,19 +17433,21 @@
         <v>45</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J124" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K124" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K124" t="s" s="2">
-        <v>797</v>
-      </c>
       <c r="L124" t="s" s="2">
-        <v>798</v>
+        <v>398</v>
       </c>
       <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+      <c r="N124" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -17463,7 +17495,7 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>796</v>
+        <v>400</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
@@ -17475,7 +17507,7 @@
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>799</v>
+        <v>45</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
@@ -17484,21 +17516,21 @@
         <v>45</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>800</v>
+        <v>45</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>801</v>
+        <v>401</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>45</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>802</v>
+        <v>756</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17518,19 +17550,23 @@
         <v>45</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>226</v>
+        <v>404</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O125" t="s" s="2">
         <v>45</v>
       </c>
@@ -17578,7 +17614,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>229</v>
+        <v>409</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -17602,29 +17638,29 @@
         <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>230</v>
+        <v>410</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>803</v>
+        <v>757</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>45</v>
@@ -17633,21 +17669,23 @@
         <v>45</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>233</v>
+        <v>414</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
       </c>
@@ -17695,13 +17733,13 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>235</v>
+        <v>417</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>45</v>
@@ -17719,52 +17757,54 @@
         <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>230</v>
+        <v>418</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO126" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>804</v>
+        <v>758</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H127" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I127" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>212</v>
+        <v>759</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>407</v>
+        <v>760</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N127" s="2"/>
+        <v>761</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>762</v>
+      </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
       </c>
@@ -17788,13 +17828,13 @@
         <v>45</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>45</v>
+        <v>763</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>45</v>
+        <v>764</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>45</v>
@@ -17812,13 +17852,13 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>408</v>
+        <v>765</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>45</v>
@@ -17836,7 +17876,7 @@
         <v>45</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>97</v>
+        <v>766</v>
       </c>
       <c r="AN127" t="s" s="2">
         <v>45</v>
@@ -17847,7 +17887,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>805</v>
+        <v>767</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17867,22 +17907,22 @@
         <v>45</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>276</v>
+        <v>768</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>806</v>
+        <v>769</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>807</v>
+        <v>770</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>808</v>
+        <v>771</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>809</v>
+        <v>772</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
@@ -17931,7 +17971,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17952,10 +17992,10 @@
         <v>45</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>810</v>
+        <v>45</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>811</v>
+        <v>766</v>
       </c>
       <c r="AN128" t="s" s="2">
         <v>45</v>
@@ -17964,15 +18004,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
-        <v>812</v>
+        <v>774</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" t="s" s="2">
+        <v>775</v>
+      </c>
       <c r="E129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17980,27 +18022,29 @@
         <v>54</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>813</v>
+        <v>776</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>814</v>
+        <v>777</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>815</v>
+        <v>778</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N129" s="2"/>
+        <v>779</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>780</v>
+      </c>
       <c r="O129" t="s" s="2">
         <v>45</v>
       </c>
@@ -18048,7 +18092,7 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
@@ -18063,27 +18107,27 @@
         <v>45</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>45</v>
+        <v>782</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>817</v>
+        <v>45</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>818</v>
+        <v>783</v>
       </c>
       <c r="AN129" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO129" t="s" s="2">
-        <v>819</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>820</v>
+        <v>784</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -18103,19 +18147,23 @@
         <v>45</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>821</v>
+        <v>786</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
+        <v>787</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="N130" t="s" s="2">
+        <v>789</v>
+      </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
       </c>
@@ -18163,7 +18211,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -18184,21 +18232,21 @@
         <v>45</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>823</v>
+        <v>45</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>824</v>
+        <v>791</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>825</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>826</v>
+        <v>792</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18218,21 +18266,21 @@
         <v>45</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>828</v>
+        <v>793</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="N131" s="2"/>
+        <v>794</v>
+      </c>
+      <c r="M131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>795</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
       </c>
@@ -18280,7 +18328,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -18301,10 +18349,10 @@
         <v>45</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>831</v>
+        <v>45</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>45</v>
@@ -18315,7 +18363,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>833</v>
+        <v>797</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18335,19 +18383,23 @@
         <v>45</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>283</v>
+        <v>776</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>834</v>
+        <v>798</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
       </c>
@@ -18383,19 +18435,17 @@
         <v>45</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AB132" s="2"/>
       <c r="AC132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
@@ -18419,24 +18469,28 @@
         <v>45</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>836</v>
+        <v>803</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="B133" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>804</v>
+      </c>
       <c r="C133" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" t="s" s="2">
+        <v>805</v>
+      </c>
       <c r="E133" t="s" s="2">
         <v>43</v>
       </c>
@@ -18444,25 +18498,29 @@
         <v>54</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>397</v>
+        <v>776</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
+        <v>807</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>800</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>801</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>45</v>
       </c>
@@ -18510,7 +18568,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>837</v>
+        <v>802</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -18522,19 +18580,19 @@
         <v>45</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>799</v>
+        <v>45</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>45</v>
+        <v>808</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>840</v>
+        <v>45</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>841</v>
+        <v>803</v>
       </c>
       <c r="AN133" t="s" s="2">
         <v>45</v>
@@ -18545,7 +18603,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>842</v>
+        <v>809</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18568,13 +18626,13 @@
         <v>45</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>226</v>
+        <v>458</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>227</v>
+        <v>810</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>228</v>
+        <v>811</v>
       </c>
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
@@ -18625,7 +18683,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>229</v>
+        <v>809</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -18637,7 +18695,7 @@
         <v>45</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>45</v>
+        <v>812</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>45</v>
@@ -18646,10 +18704,10 @@
         <v>45</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>45</v>
+        <v>813</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>230</v>
+        <v>814</v>
       </c>
       <c r="AN134" t="s" s="2">
         <v>45</v>
@@ -18660,18 +18718,18 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>843</v>
+        <v>815</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>45</v>
@@ -18683,17 +18741,15 @@
         <v>45</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>45</v>
@@ -18742,13 +18798,13 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>45</v>
@@ -18777,11 +18833,11 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>844</v>
+        <v>816</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>406</v>
+        <v>211</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18794,19 +18850,19 @@
         <v>45</v>
       </c>
       <c r="H136" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>99</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>407</v>
+        <v>233</v>
       </c>
       <c r="M136" t="s" s="2">
         <v>214</v>
@@ -18859,7 +18915,7 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>408</v>
+        <v>235</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>43</v>
@@ -18883,7 +18939,7 @@
         <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>45</v>
@@ -18894,18 +18950,18 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>845</v>
+        <v>817</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>45</v>
@@ -18914,19 +18970,19 @@
         <v>55</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>734</v>
+        <v>99</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>846</v>
+        <v>212</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>847</v>
+        <v>468</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>848</v>
+        <v>214</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18976,13 +19032,13 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>845</v>
+        <v>469</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>45</v>
@@ -18997,21 +19053,21 @@
         <v>45</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>840</v>
+        <v>45</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>849</v>
+        <v>97</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>850</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -19034,16 +19090,20 @@
         <v>45</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
+        <v>820</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>822</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
       </c>
@@ -19067,13 +19127,13 @@
         <v>45</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>854</v>
+        <v>45</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>855</v>
+        <v>45</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>45</v>
@@ -19091,7 +19151,7 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>43</v>
@@ -19112,21 +19172,21 @@
         <v>45</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>856</v>
+        <v>823</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>857</v>
+        <v>824</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>858</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19149,15 +19209,17 @@
         <v>45</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="M139" s="2"/>
+        <v>828</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>829</v>
+      </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -19206,7 +19268,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -19224,35 +19286,35 @@
         <v>45</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>863</v>
+        <v>45</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>864</v>
+        <v>831</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>45</v>
+        <v>832</v>
       </c>
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>866</v>
+        <v>45</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F140" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G140" t="s" s="2">
         <v>45</v>
@@ -19264,13 +19326,13 @@
         <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>867</v>
+        <v>785</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -19321,13 +19383,13 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>45</v>
@@ -19342,21 +19404,21 @@
         <v>45</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>45</v>
+        <v>836</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>870</v>
+        <v>837</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO140" t="s" s="2">
-        <v>45</v>
+        <v>838</v>
       </c>
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19367,7 +19429,7 @@
         <v>43</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>45</v>
@@ -19379,16 +19441,16 @@
         <v>45</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
@@ -19438,41 +19500,1199 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
+        <v>839</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>845</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO141" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>848</v>
+      </c>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>846</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AO142" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO143" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN144" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO144" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>857</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>853</v>
+      </c>
+      <c r="AM147" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO147" t="s" s="2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>867</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO148" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="AF141" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG141" t="s" s="2">
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO149" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>879</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F150" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AH141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO141" t="s" s="2">
+      <c r="G150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>882</v>
+      </c>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" hidden="true">
+      <c r="A151" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F151" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J151" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="K151" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="L151" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="N151" s="2"/>
+      <c r="O151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P151" s="2"/>
+      <c r="Q151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE151" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="AF151" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG151" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK151" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="AL151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM151" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="AN151" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO151" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO141">
+  <autoFilter ref="A1:AO151">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19482,7 +20702,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI140">
+  <conditionalFormatting sqref="A2:AI150">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
+++ b/docs/StructureDefinition-VAInpatientIVMedicationRequest.xlsx
@@ -356,6 +356,9 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
     <t>This field contains the priority of the order that was received from OERR.</t>
   </si>
   <si>
@@ -380,9 +383,6 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
     <t>Quantity of last filled prescription.</t>
   </si>
   <si>
@@ -650,20 +650,20 @@
     <t>medicationrequest-ivType</t>
   </si>
   <si>
-    <t>CHEMOTHERAPY TYPE</t>
+    <t>TYPE</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/medicationrequest-ivType}
 </t>
   </si>
   <si>
-    <t>chemotherapy type</t>
-  </si>
-  <si>
-    <t>A chemotherapy IV order may be one of three types: admixture, piggyback, or syringe.  The type of chemotherapy IV must be identified as one of these types, so the system will know what kinds of questions to ask in order to properly complete this order.</t>
-  </si>
-  <si>
-    <t>Pharmacy Patient @CHEMOTHERAPY TYPE 55.01-106</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Type of IV - 'A' for Admixture, 'C' for chemotherapy, 'H' for Hyperal, 'P' for Piggyback, and 'S' for Syringe.</t>
+  </si>
+  <si>
+    <t>Pharmacy Patient @TYPE 55.01-.04</t>
   </si>
   <si>
     <t>medicationrequest-pharmacyOrderStatus</t>
@@ -4071,10 +4071,10 @@
         <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -4134,13 +4134,13 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
@@ -4149,7 +4149,7 @@
         <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -4163,13 +4163,13 @@
         <v>98</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s" s="2">
         <v>43</v>
@@ -4187,10 +4187,10 @@
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>116</v>
@@ -4253,10 +4253,10 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>117</v>
@@ -4309,7 +4309,7 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>121</v>
@@ -4372,10 +4372,10 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>122</v>
@@ -4491,10 +4491,10 @@
         <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>128</v>
@@ -4610,10 +4610,10 @@
         <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>134</v>
@@ -4625,7 +4625,7 @@
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -4729,10 +4729,10 @@
         <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>140</v>
@@ -4744,7 +4744,7 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -4848,10 +4848,10 @@
         <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>146</v>
@@ -4967,10 +4967,10 @@
         <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>152</v>
@@ -5086,10 +5086,10 @@
         <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>157</v>
@@ -5205,10 +5205,10 @@
         <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>163</v>
@@ -5324,10 +5324,10 @@
         <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>169</v>
@@ -5339,7 +5339,7 @@
         <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -5380,7 +5380,7 @@
         <v>172</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>173</v>
@@ -5443,10 +5443,10 @@
         <v>44</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>174</v>
@@ -5562,10 +5562,10 @@
         <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>180</v>
@@ -5681,10 +5681,10 @@
         <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>186</v>
@@ -5696,7 +5696,7 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>45</v>
@@ -5800,10 +5800,10 @@
         <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>192</v>
@@ -5919,10 +5919,10 @@
         <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>198</v>
@@ -6038,10 +6038,10 @@
         <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>204</v>
@@ -6157,10 +6157,10 @@
         <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>209</v>
@@ -8082,7 +8082,7 @@
         <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
